--- a/Support/CheckMapLog.xlsx
+++ b/Support/CheckMapLog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,14 +21,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>映射问题</t>
+    <t>映射表中无以下物资代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -65,8 +65,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -127,7 +130,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -162,7 +165,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -339,7 +342,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -350,19 +353,19 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="1" max="1" width="30" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
